--- a/data/trans_camb/P25_7-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_7-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,1</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>7,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,95</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-8,07</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-6,14</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-3,42</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 2,98</t>
+          <t>-7,36; 12,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 14,83</t>
+          <t>-2,35; 18,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 12,71</t>
+          <t>-9,79; 17,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 2,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 5,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 8,86</t>
+          <t>-17,82; 1,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 0,17</t>
+          <t>-14,15; 4,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 7,53</t>
+          <t>-14,21; 9,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 7,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-11,48; 4,56</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-6,4; 9,0</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-8,67; 10,89</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-21,15%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>31,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-12,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-4,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>-15,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-15,83%</t>
+          <t>-8,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>-4,62%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-8,74%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2,8%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3,69%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-47,93; 14,43</t>
+          <t>-24,39; 63,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,37; 64,57</t>
+          <t>-7,79; 100,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-25,19; 58,45</t>
+          <t>-31,39; 90,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-27,55; 5,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,36; 14,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,85; 21,24</t>
+          <t>-31,81; 2,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,11; -0,16</t>
+          <t>-25,04; 10,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 21,94</t>
+          <t>-24,79; 21,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 21,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-25,39; 14,11</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-14,24; 26,68</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-20,54; 30,61</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,02</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,77</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,35</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-2,02</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,83</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 4,35</t>
+          <t>-6,0; 4,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 7,74</t>
+          <t>-4,67; 6,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,86; 16,09</t>
+          <t>0,38; 14,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 1,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 2,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 11,82</t>
+          <t>-10,22; 3,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 1,54</t>
+          <t>-10,14; 3,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 3,92</t>
+          <t>-5,8; 9,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,87; 11,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-7,27; 2,39</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-6,47; 2,5</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,34; 9,24</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>-5,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>78,53%</t>
+          <t>40,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-12,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>-9,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-9,15%</t>
+          <t>-9,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,63%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31,74%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-8,86%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-7,63%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>14,45%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,37; 35,38</t>
+          <t>-32,2; 39,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 62,86</t>
+          <t>-24,97; 50,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,42; 134,51</t>
+          <t>-0,12; 108,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 4,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,6; 8,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 36,46</t>
+          <t>-25,59; 10,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 6,65</t>
+          <t>-25,21; 10,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 17,62</t>
+          <t>-14,65; 27,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,02; 53,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-24,69; 10,2</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-21,99; 11,39</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-4,84; 37,51</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,61</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-5,09</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>-3,22</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>-2,39</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-3,67</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-1,5</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 6,1</t>
+          <t>-10,17; 4,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 8,26</t>
+          <t>-8,15; 5,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 8,31</t>
+          <t>-8,52; 7,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 0,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 3,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 4,42</t>
+          <t>-11,34; 1,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 1,98</t>
+          <t>-9,69; 2,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 4,17</t>
+          <t>-9,23; 4,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 4,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-8,37; 1,23</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-6,78; 2,45</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-6,87; 3,87</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,43%</t>
+          <t>-10,36%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>-3,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,17%</t>
+          <t>-2,65%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-18,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-7,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-11,16%</t>
+          <t>-19,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-10,99%</t>
+          <t>-12,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>-8,99%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-6,3%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-15,3%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-8,25%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-6,25%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,19; 42,15</t>
+          <t>-38,46; 25,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 51,81</t>
+          <t>-30,59; 33,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-41,04; 53,94</t>
+          <t>-33,67; 41,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,12; 2,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 16,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 20,37</t>
+          <t>-37,43; 6,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,15; 10,26</t>
+          <t>-30,49; 12,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 21,94</t>
+          <t>-30,75; 18,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-25,78; 21,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-30,4; 6,7</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-25,15; 11,88</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-25,18; 18,4</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,2</t>
+          <t>8,02</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>-5,09</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-4,01</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>5,01</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 2,47</t>
+          <t>-7,35; 2,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 7,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,92; 11,21</t>
+          <t>2,14; 13,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,07; -1,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 2,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 8,45</t>
+          <t>-10,83; 1,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,33; -0,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 3,07</t>
+          <t>-5,17; 8,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,42; 8,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-8,27; 0,49</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,43; 9,79</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,89%</t>
+          <t>-16,34%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>39,54%</t>
+          <t>54,2%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-12,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-5,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>-15,8%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-10,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-17,19%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>21,5%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-23,43; 15,47</t>
+          <t>-42,85; 27,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 43,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,75; 68,82</t>
+          <t>10,55; 109,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,91; -2,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 6,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 25,68</t>
+          <t>-31,69; 6,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,97; -0,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 12,26</t>
+          <t>-14,35; 30,3</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,52; 33,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-32,58; 2,37</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>1,83; 45,61</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3,89</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5,62</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-3,87</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,15</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-2,06</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>3,37</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,33; 3,53</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 7,57</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1,85; 9,72</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-7,35; -0,34</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,75; 2,42</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,58; 5,29</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-4,36; 0,47</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,25; 3,9</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,6; 6,13</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-0,86%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>22,26%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>32,16%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-11,3%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-3,36%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3,43%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-7,9%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>4,99%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>12,94%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-17,22; 22,98</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2,67; 49,02</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>9,98; 61,98</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-20,5; -1,03</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-12,96; 7,45</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-7,2; 16,19</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-16,06; 1,91</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-4,62; 15,8</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1,94; 24,39</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
